--- a/output/blm_swampformat_Nov2020.xlsx
+++ b/output/blm_swampformat_Nov2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itlender/Projects/BLM_data_reformatter/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F423F641-D43C-F64E-8BA9-0AB21A701C92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39894B56-2343-934F-9769-37A32C8666FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,7 +720,7 @@
     <t>East</t>
   </si>
   <si>
-    <t>SCCWRP YSI Pro1020</t>
+    <t>YSI Pro1020</t>
   </si>
 </sst>
 </file>
@@ -4781,7 +4781,7 @@
   <dimension ref="A1:AD300"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+      <selection activeCell="AD34" sqref="AD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/output/blm_swampformat_Nov2020.xlsx
+++ b/output/blm_swampformat_Nov2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itlender/Projects/BLM_data_reformatter/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adcsuf-my.sharepoint.com/personal/duynguyen1993_csu_fullerton_edu/Documents/Work-Related Documents/SCCWRP/Projects/BLM_data_reformatter/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39894B56-2343-934F-9769-37A32C8666FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39894B56-2343-934F-9769-37A32C8666FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -1092,9 +1092,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -1105,7 +1107,7 @@
     <col min="7" max="7" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1151,7 +1153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1171,7 +1173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1191,7 +1193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1214,7 +1216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1237,7 +1239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1260,7 +1262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1283,7 +1285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1306,7 +1308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1329,7 +1331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1349,7 +1351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1369,7 +1371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1389,7 +1391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1409,7 +1411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1429,7 +1431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1449,7 +1451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1481,9 +1483,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -1497,7 +1501,7 @@
     <col min="10" max="10" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1533,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1561,7 +1565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1587,7 +1591,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1613,7 +1617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1645,7 +1649,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1677,7 +1681,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1706,7 +1710,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1735,7 +1739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1764,7 +1768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1793,7 +1797,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1819,7 +1823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1842,7 +1846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1868,7 +1872,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1894,7 +1898,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1920,7 +1924,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1946,7 +1950,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1989,7 +1993,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -2002,7 +2006,7 @@
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2031,7 +2035,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2060,7 +2064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2086,7 +2090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2112,7 +2116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2141,7 +2145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2170,7 +2174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2199,7 +2203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2228,7 +2232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2257,7 +2261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2286,7 +2290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2312,7 +2316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2338,7 +2342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2364,7 +2368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2390,7 +2394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2416,7 +2420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2442,7 +2446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2471,7 +2475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2500,7 +2504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2526,7 +2530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -2552,7 +2556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -2581,7 +2585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2610,7 +2614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -2639,7 +2643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2668,7 +2672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2697,7 +2701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2726,7 +2730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -2752,7 +2756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -2778,7 +2782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2804,7 +2808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2830,7 +2834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2856,7 +2860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -2882,7 +2886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -2922,7 +2926,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -2961,7 +2965,7 @@
     <col min="37" max="37" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3074,7 +3078,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3181,7 +3185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3285,7 +3289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3389,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3499,7 +3503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3612,7 +3616,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3719,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3826,7 +3830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3933,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4040,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4144,7 +4148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4248,7 +4252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -4352,7 +4356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -4456,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -4560,7 +4564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -4664,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4780,11 +4784,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AD300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="AD34" sqref="AD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -4817,7 +4821,7 @@
     <col min="30" max="30" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4909,7 +4913,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4986,7 +4990,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5060,7 +5064,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5134,7 +5138,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -5208,7 +5212,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -5282,7 +5286,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5356,7 +5360,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -5430,7 +5434,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -5504,7 +5508,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -5578,7 +5582,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -5655,7 +5659,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -5729,7 +5733,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -5803,7 +5807,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5877,7 +5881,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -5951,7 +5955,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6025,7 +6029,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -6099,7 +6103,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -6173,7 +6177,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -6250,7 +6254,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -6324,7 +6328,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -6395,7 +6399,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -6466,7 +6470,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -6537,7 +6541,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -6608,7 +6612,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -6679,7 +6683,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -6750,7 +6754,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -6821,7 +6825,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -6892,7 +6896,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -6966,7 +6970,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -7037,7 +7041,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -7108,7 +7112,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -7179,7 +7183,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -7250,7 +7254,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -7321,7 +7325,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -7392,7 +7396,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -7463,7 +7467,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -7537,7 +7541,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -7617,7 +7621,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -7697,7 +7701,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -7774,7 +7778,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -7851,7 +7855,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -7928,7 +7932,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -8005,7 +8009,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -8082,7 +8086,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -8159,7 +8163,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -8236,7 +8240,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -8313,7 +8317,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -8390,7 +8394,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -8467,7 +8471,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -8547,7 +8551,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -8627,7 +8631,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -8704,7 +8708,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -8781,7 +8785,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -8858,7 +8862,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -8935,7 +8939,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -9012,7 +9016,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -9089,7 +9093,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -9166,7 +9170,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -9246,7 +9250,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -9326,7 +9330,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -9406,7 +9410,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -9486,7 +9490,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -9563,7 +9567,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -9640,7 +9644,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -9717,7 +9721,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -9794,7 +9798,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -9871,7 +9875,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -9948,7 +9952,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -10025,7 +10029,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -10102,7 +10106,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -10179,7 +10183,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -10256,7 +10260,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -10333,7 +10337,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -10413,7 +10417,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -10493,7 +10497,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -10570,7 +10574,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -10647,7 +10651,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -10724,7 +10728,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -10801,7 +10805,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -10878,7 +10882,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -10955,7 +10959,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -11032,7 +11036,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -11112,7 +11116,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -11192,7 +11196,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -11269,7 +11273,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -11343,7 +11347,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -11417,7 +11421,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -11491,7 +11495,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -11565,7 +11569,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -11639,7 +11643,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -11713,7 +11717,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>21</v>
       </c>
@@ -11787,7 +11791,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>21</v>
       </c>
@@ -11861,7 +11865,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>21</v>
       </c>
@@ -11938,7 +11942,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>21</v>
       </c>
@@ -12012,7 +12016,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>21</v>
       </c>
@@ -12086,7 +12090,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -12160,7 +12164,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>21</v>
       </c>
@@ -12234,7 +12238,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>21</v>
       </c>
@@ -12308,7 +12312,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>21</v>
       </c>
@@ -12382,7 +12386,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>21</v>
       </c>
@@ -12456,7 +12460,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>21</v>
       </c>
@@ -12533,7 +12537,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>21</v>
       </c>
@@ -12607,7 +12611,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>21</v>
       </c>
@@ -12678,7 +12682,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>21</v>
       </c>
@@ -12749,7 +12753,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>21</v>
       </c>
@@ -12820,7 +12824,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -12891,7 +12895,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>21</v>
       </c>
@@ -12962,7 +12966,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>21</v>
       </c>
@@ -13033,7 +13037,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>21</v>
       </c>
@@ -13104,7 +13108,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>21</v>
       </c>
@@ -13175,7 +13179,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>21</v>
       </c>
@@ -13249,7 +13253,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>21</v>
       </c>
@@ -13320,7 +13324,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>21</v>
       </c>
@@ -13391,7 +13395,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>21</v>
       </c>
@@ -13462,7 +13466,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>21</v>
       </c>
@@ -13533,7 +13537,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>21</v>
       </c>
@@ -13604,7 +13608,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -13675,7 +13679,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>21</v>
       </c>
@@ -13746,7 +13750,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>21</v>
       </c>
@@ -13820,7 +13824,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>23</v>
       </c>
@@ -13897,7 +13901,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>23</v>
       </c>
@@ -13971,7 +13975,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>23</v>
       </c>
@@ -14045,7 +14049,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>23</v>
       </c>
@@ -14119,7 +14123,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>23</v>
       </c>
@@ -14193,7 +14197,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>23</v>
       </c>
@@ -14267,7 +14271,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>23</v>
       </c>
@@ -14341,7 +14345,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>23</v>
       </c>
@@ -14415,7 +14419,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>23</v>
       </c>
@@ -14489,7 +14493,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>23</v>
       </c>
@@ -14566,7 +14570,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>23</v>
       </c>
@@ -14640,7 +14644,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>23</v>
       </c>
@@ -14714,7 +14718,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>23</v>
       </c>
@@ -14788,7 +14792,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>23</v>
       </c>
@@ -14862,7 +14866,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>23</v>
       </c>
@@ -14936,7 +14940,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>23</v>
       </c>
@@ -15010,7 +15014,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>23</v>
       </c>
@@ -15084,7 +15088,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -15161,7 +15165,7 @@
         <v>44152.833333333343</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>23</v>
       </c>
@@ -15235,7 +15239,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>23</v>
       </c>
@@ -15306,7 +15310,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>23</v>
       </c>
@@ -15377,7 +15381,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>23</v>
       </c>
@@ -15448,7 +15452,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>23</v>
       </c>
@@ -15519,7 +15523,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>23</v>
       </c>
@@ -15590,7 +15594,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>23</v>
       </c>
@@ -15661,7 +15665,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>23</v>
       </c>
@@ -15732,7 +15736,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>23</v>
       </c>
@@ -15803,7 +15807,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>23</v>
       </c>
@@ -15877,7 +15881,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>23</v>
       </c>
@@ -15948,7 +15952,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>23</v>
       </c>
@@ -16019,7 +16023,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>23</v>
       </c>
@@ -16090,7 +16094,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>23</v>
       </c>
@@ -16161,7 +16165,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>23</v>
       </c>
@@ -16232,7 +16236,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>23</v>
       </c>
@@ -16303,7 +16307,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>23</v>
       </c>
@@ -16374,7 +16378,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>23</v>
       </c>
@@ -16448,7 +16452,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>19</v>
       </c>
@@ -16528,7 +16532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>19</v>
       </c>
@@ -16605,7 +16609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>19</v>
       </c>
@@ -16682,7 +16686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -16759,7 +16763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -16836,7 +16840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -16913,7 +16917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>19</v>
       </c>
@@ -16990,7 +16994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -17067,7 +17071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -17144,7 +17148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -17224,7 +17228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -17301,7 +17305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -17378,7 +17382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -17455,7 +17459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -17532,7 +17536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>19</v>
       </c>
@@ -17609,7 +17613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>19</v>
       </c>
@@ -17686,7 +17690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>19</v>
       </c>
@@ -17763,7 +17767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>19</v>
       </c>
@@ -17843,7 +17847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -17917,7 +17921,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>19</v>
       </c>
@@ -17988,7 +17992,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -18059,7 +18063,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>19</v>
       </c>
@@ -18130,7 +18134,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>19</v>
       </c>
@@ -18201,7 +18205,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>19</v>
       </c>
@@ -18272,7 +18276,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>19</v>
       </c>
@@ -18343,7 +18347,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>19</v>
       </c>
@@ -18414,7 +18418,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>19</v>
       </c>
@@ -18485,7 +18489,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>19</v>
       </c>
@@ -18559,7 +18563,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>19</v>
       </c>
@@ -18630,7 +18634,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>19</v>
       </c>
@@ -18701,7 +18705,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>19</v>
       </c>
@@ -18772,7 +18776,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>19</v>
       </c>
@@ -18843,7 +18847,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>19</v>
       </c>
@@ -18914,7 +18918,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>19</v>
       </c>
@@ -18985,7 +18989,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>19</v>
       </c>
@@ -19056,7 +19060,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>19</v>
       </c>
@@ -19130,7 +19134,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -19213,7 +19217,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>17</v>
       </c>
@@ -19293,7 +19297,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>17</v>
       </c>
@@ -19373,7 +19377,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>17</v>
       </c>
@@ -19453,7 +19457,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>17</v>
       </c>
@@ -19533,7 +19537,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>17</v>
       </c>
@@ -19613,7 +19617,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>17</v>
       </c>
@@ -19693,7 +19697,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>17</v>
       </c>
@@ -19773,7 +19777,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>17</v>
       </c>
@@ -19853,7 +19857,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>17</v>
       </c>
@@ -19936,7 +19940,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>17</v>
       </c>
@@ -20016,7 +20020,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>17</v>
       </c>
@@ -20096,7 +20100,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>17</v>
       </c>
@@ -20176,7 +20180,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>17</v>
       </c>
@@ -20256,7 +20260,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>17</v>
       </c>
@@ -20336,7 +20340,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>17</v>
       </c>
@@ -20416,7 +20420,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>17</v>
       </c>
@@ -20496,7 +20500,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>17</v>
       </c>
@@ -20579,7 +20583,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>17</v>
       </c>
@@ -20653,7 +20657,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>17</v>
       </c>
@@ -20724,7 +20728,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>17</v>
       </c>
@@ -20795,7 +20799,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>17</v>
       </c>
@@ -20866,7 +20870,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>17</v>
       </c>
@@ -20937,7 +20941,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>17</v>
       </c>
@@ -21008,7 +21012,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>17</v>
       </c>
@@ -21079,7 +21083,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>17</v>
       </c>
@@ -21150,7 +21154,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>17</v>
       </c>
@@ -21221,7 +21225,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>17</v>
       </c>
@@ -21295,7 +21299,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -21366,7 +21370,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -21437,7 +21441,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>17</v>
       </c>
@@ -21508,7 +21512,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>17</v>
       </c>
@@ -21579,7 +21583,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -21650,7 +21654,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>17</v>
       </c>
@@ -21721,7 +21725,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>17</v>
       </c>
@@ -21792,7 +21796,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>17</v>
       </c>
@@ -21866,7 +21870,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>15</v>
       </c>
@@ -21943,7 +21947,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>15</v>
       </c>
@@ -22017,7 +22021,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>15</v>
       </c>
@@ -22091,7 +22095,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>15</v>
       </c>
@@ -22165,7 +22169,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>15</v>
       </c>
@@ -22239,7 +22243,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>15</v>
       </c>
@@ -22313,7 +22317,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>15</v>
       </c>
@@ -22387,7 +22391,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>15</v>
       </c>
@@ -22461,7 +22465,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>15</v>
       </c>
@@ -22535,7 +22539,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>15</v>
       </c>
@@ -22612,7 +22616,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>15</v>
       </c>
@@ -22686,7 +22690,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>15</v>
       </c>
@@ -22760,7 +22764,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>15</v>
       </c>
@@ -22834,7 +22838,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>15</v>
       </c>
@@ -22908,7 +22912,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>15</v>
       </c>
@@ -22982,7 +22986,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>15</v>
       </c>
@@ -23056,7 +23060,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>15</v>
       </c>
@@ -23130,7 +23134,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>15</v>
       </c>
@@ -23207,7 +23211,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>15</v>
       </c>
@@ -23263,7 +23267,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>15</v>
       </c>
@@ -23319,7 +23323,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>15</v>
       </c>
@@ -23375,7 +23379,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>15</v>
       </c>
@@ -23431,7 +23435,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>15</v>
       </c>
@@ -23487,7 +23491,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>15</v>
       </c>
@@ -23543,7 +23547,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>15</v>
       </c>
@@ -23599,7 +23603,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>15</v>
       </c>
@@ -23655,7 +23659,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>15</v>
       </c>
@@ -23711,7 +23715,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>15</v>
       </c>
@@ -23767,7 +23771,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>15</v>
       </c>
@@ -23823,7 +23827,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>15</v>
       </c>
@@ -23879,7 +23883,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>15</v>
       </c>
@@ -23935,7 +23939,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>15</v>
       </c>
@@ -23991,7 +23995,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>15</v>
       </c>
@@ -24047,7 +24051,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>15</v>
       </c>
@@ -24103,7 +24107,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>15</v>
       </c>
@@ -24159,7 +24163,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>15</v>
       </c>
@@ -24215,7 +24219,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>14</v>
       </c>
@@ -24289,7 +24293,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>14</v>
       </c>
@@ -24360,7 +24364,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>14</v>
       </c>
@@ -24431,7 +24435,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>14</v>
       </c>
@@ -24502,7 +24506,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>14</v>
       </c>
@@ -24573,7 +24577,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>14</v>
       </c>
@@ -24644,7 +24648,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>14</v>
       </c>
@@ -24715,7 +24719,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>14</v>
       </c>
@@ -24786,7 +24790,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="273" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>14</v>
       </c>
@@ -24857,7 +24861,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>14</v>
       </c>
@@ -24931,7 +24935,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>14</v>
       </c>
@@ -25002,7 +25006,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="276" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>14</v>
       </c>
@@ -25073,7 +25077,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="277" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>14</v>
       </c>
@@ -25144,7 +25148,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="278" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>14</v>
       </c>
@@ -25215,7 +25219,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="279" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>14</v>
       </c>
@@ -25286,7 +25290,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="280" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>14</v>
       </c>
@@ -25357,7 +25361,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="281" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>14</v>
       </c>
@@ -25428,7 +25432,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="282" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>14</v>
       </c>
@@ -25502,7 +25506,7 @@
         <v>44151.833333333343</v>
       </c>
     </row>
-    <row r="283" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>14</v>
       </c>
@@ -25576,7 +25580,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="284" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>14</v>
       </c>
@@ -25647,7 +25651,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="285" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>14</v>
       </c>
@@ -25718,7 +25722,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="286" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>14</v>
       </c>
@@ -25789,7 +25793,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="287" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>14</v>
       </c>
@@ -25860,7 +25864,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="288" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>14</v>
       </c>
@@ -25931,7 +25935,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="289" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>14</v>
       </c>
@@ -26002,7 +26006,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="290" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>14</v>
       </c>
@@ -26073,7 +26077,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="291" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>14</v>
       </c>
@@ -26144,7 +26148,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="292" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>14</v>
       </c>
@@ -26218,7 +26222,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="293" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>14</v>
       </c>
@@ -26289,7 +26293,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="294" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>14</v>
       </c>
@@ -26360,7 +26364,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="295" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>14</v>
       </c>
@@ -26431,7 +26435,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="296" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>14</v>
       </c>
@@ -26502,7 +26506,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="297" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>14</v>
       </c>
@@ -26573,7 +26577,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="298" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>14</v>
       </c>
@@ -26644,7 +26648,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="299" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>14</v>
       </c>
@@ -26715,7 +26719,7 @@
         <v>44164.833333333343</v>
       </c>
     </row>
-    <row r="300" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>14</v>
       </c>
@@ -26800,7 +26804,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -26830,7 +26834,7 @@
     <col min="26" max="26" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26910,7 +26914,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -26975,7 +26979,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -27040,7 +27044,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -27105,7 +27109,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -27170,7 +27174,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -27235,7 +27239,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -27300,7 +27304,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -27365,7 +27369,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -27430,7 +27434,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -27495,7 +27499,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -27560,7 +27564,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -27625,7 +27629,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -27690,7 +27694,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -27755,7 +27759,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -27817,7 +27821,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -27879,7 +27883,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -27941,7 +27945,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -28003,7 +28007,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -28065,7 +28069,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -28127,7 +28131,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -28189,7 +28193,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -28251,7 +28255,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -28313,7 +28317,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -28375,7 +28379,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -28437,7 +28441,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -28499,7 +28503,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -28561,7 +28565,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -28629,7 +28633,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -28697,7 +28701,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -28765,7 +28769,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -28833,7 +28837,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -28901,7 +28905,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -28969,7 +28973,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -29037,7 +29041,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -29105,7 +29109,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -29173,7 +29177,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -29241,7 +29245,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -29309,7 +29313,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -29377,7 +29381,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -29445,7 +29449,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -29513,7 +29517,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -29581,7 +29585,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -29649,7 +29653,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -29717,7 +29721,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -29785,7 +29789,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -29853,7 +29857,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -29921,7 +29925,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -29989,7 +29993,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -30057,7 +30061,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -30125,7 +30129,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -30193,7 +30197,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -30261,7 +30265,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -30329,7 +30333,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -30394,7 +30398,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -30459,7 +30463,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -30524,7 +30528,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -30589,7 +30593,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -30654,7 +30658,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -30719,7 +30723,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -30784,7 +30788,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -30849,7 +30853,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -30914,7 +30918,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -30979,7 +30983,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -31044,7 +31048,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -31109,7 +31113,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -31174,7 +31178,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -31236,7 +31240,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -31298,7 +31302,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -31360,7 +31364,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -31422,7 +31426,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -31484,7 +31488,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -31546,7 +31550,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -31608,7 +31612,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -31670,7 +31674,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -31732,7 +31736,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -31794,7 +31798,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -31856,7 +31860,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -31918,7 +31922,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -31980,7 +31984,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>23</v>
       </c>
@@ -32045,7 +32049,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>23</v>
       </c>
@@ -32110,7 +32114,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -32175,7 +32179,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>23</v>
       </c>
@@ -32240,7 +32244,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>23</v>
       </c>
@@ -32305,7 +32309,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -32370,7 +32374,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -32435,7 +32439,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -32500,7 +32504,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -32565,7 +32569,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -32630,7 +32634,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -32695,7 +32699,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -32760,7 +32764,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -32825,7 +32829,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>23</v>
       </c>
@@ -32887,7 +32891,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -32949,7 +32953,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -33011,7 +33015,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>23</v>
       </c>
@@ -33073,7 +33077,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -33135,7 +33139,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -33197,7 +33201,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -33259,7 +33263,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -33321,7 +33325,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -33383,7 +33387,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -33445,7 +33449,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>23</v>
       </c>
@@ -33507,7 +33511,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>23</v>
       </c>
@@ -33569,7 +33573,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -33631,7 +33635,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -33696,7 +33700,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -33761,7 +33765,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -33826,7 +33830,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -33891,7 +33895,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -33956,7 +33960,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -34021,7 +34025,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -34086,7 +34090,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -34151,7 +34155,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -34216,7 +34220,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -34281,7 +34285,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>19</v>
       </c>
@@ -34346,7 +34350,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -34411,7 +34415,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>19</v>
       </c>
@@ -34476,7 +34480,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -34538,7 +34542,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>19</v>
       </c>
@@ -34600,7 +34604,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>19</v>
       </c>
@@ -34662,7 +34666,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>19</v>
       </c>
@@ -34724,7 +34728,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -34786,7 +34790,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>19</v>
       </c>
@@ -34848,7 +34852,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -34910,7 +34914,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>19</v>
       </c>
@@ -34972,7 +34976,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -35034,7 +35038,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>19</v>
       </c>
@@ -35096,7 +35100,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -35158,7 +35162,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>19</v>
       </c>
@@ -35220,7 +35224,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>19</v>
       </c>
@@ -35282,7 +35286,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -35350,7 +35354,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -35418,7 +35422,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -35486,7 +35490,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -35554,7 +35558,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -35622,7 +35626,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -35690,7 +35694,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -35758,7 +35762,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -35826,7 +35830,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -35894,7 +35898,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -35962,7 +35966,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -36030,7 +36034,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -36098,7 +36102,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -36166,7 +36170,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -36228,7 +36232,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -36290,7 +36294,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -36352,7 +36356,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -36414,7 +36418,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -36476,7 +36480,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -36538,7 +36542,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -36600,7 +36604,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -36662,7 +36666,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -36724,7 +36728,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>17</v>
       </c>
@@ -36786,7 +36790,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -36848,7 +36852,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -36910,7 +36914,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -36972,7 +36976,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>15</v>
       </c>
@@ -37037,7 +37041,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>15</v>
       </c>
@@ -37102,7 +37106,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -37167,7 +37171,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -37232,7 +37236,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>15</v>
       </c>
@@ -37297,7 +37301,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>15</v>
       </c>
@@ -37362,7 +37366,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>15</v>
       </c>
@@ -37427,7 +37431,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>15</v>
       </c>
@@ -37492,7 +37496,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>15</v>
       </c>
@@ -37557,7 +37561,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>15</v>
       </c>
@@ -37622,7 +37626,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>15</v>
       </c>
@@ -37687,7 +37691,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>15</v>
       </c>
@@ -37752,7 +37756,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>15</v>
       </c>
@@ -37817,7 +37821,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>15</v>
       </c>
@@ -37885,7 +37889,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>15</v>
       </c>
@@ -37953,7 +37957,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -38021,7 +38025,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>15</v>
       </c>
@@ -38089,7 +38093,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>15</v>
       </c>
@@ -38157,7 +38161,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>15</v>
       </c>
@@ -38225,7 +38229,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>15</v>
       </c>
@@ -38293,7 +38297,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>14</v>
       </c>
@@ -38355,7 +38359,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>14</v>
       </c>
@@ -38417,7 +38421,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>14</v>
       </c>
@@ -38479,7 +38483,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>14</v>
       </c>
@@ -38541,7 +38545,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>14</v>
       </c>
@@ -38603,7 +38607,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>14</v>
       </c>
@@ -38665,7 +38669,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>14</v>
       </c>
@@ -38727,7 +38731,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>14</v>
       </c>
@@ -38789,7 +38793,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>14</v>
       </c>
@@ -38851,7 +38855,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -38913,7 +38917,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>14</v>
       </c>
@@ -38975,7 +38979,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>14</v>
       </c>
@@ -39037,7 +39041,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -39099,7 +39103,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>14</v>
       </c>
@@ -39161,7 +39165,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>14</v>
       </c>
@@ -39223,7 +39227,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>14</v>
       </c>
@@ -39285,7 +39289,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -39347,7 +39351,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -39409,7 +39413,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -39471,7 +39475,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -39533,7 +39537,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -39595,7 +39599,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>14</v>
       </c>
@@ -39657,7 +39661,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>14</v>
       </c>
@@ -39719,7 +39723,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>14</v>
       </c>
